--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,6 +1561,190 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45202.875</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>03/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>03/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>03/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>03/10/2023 20:32</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/college-1975-st-josephs/O4CZuYgq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45203.875</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lincoln-red-imps-glacis-united/2eBwuh9k/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,6 +1745,98 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45204.875</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>04/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lions-gibraltar-magpies/pK0rvCOe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,6 +1837,98 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45205.875</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:32</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:32</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>06/10/2023 12:32</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-fc-lynx/df4nwWw2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1929,6 +1929,98 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45219.875</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mons Calpe</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>20/10/2023 10:16</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:55</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/manchester-62-mons-calpe/lliY0ZV8/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2021,6 +2021,98 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45221.8125</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:31</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lynx-college-1975/GbyDgiOr/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2113,6 +2113,98 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45224.875</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:34</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>25/10/2023 19:51</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:34</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>25/10/2023 19:51</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:34</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>25/10/2023 19:51</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/magpies-lincoln-red-imps/APhWpNuB/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,6 +2205,466 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45226.875</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:47</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:47</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>27/10/2023 11:47</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/st-josephs-lynx/bNQHhBwk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:17</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-fc-glacis-united/xEPLiVhe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45227.8125</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lions-gibraltar-europa-point/pvPPjk81/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:17</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:17</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:15</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/college-1975-magpies/OUNTk9N7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45228.8125</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:31</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:31</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:31</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lincoln-red-imps-manchester-62/QZ1CEh08/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2665,98 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45233.875</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>03/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>03/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>03/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/magpies-st-josephs/vw6GDCFE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2757,6 +2757,190 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:16</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:08</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/glacis-united-college-1975/Ya5KCWUK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45234.8125</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mons Calpe</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:32</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:15</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:32</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:15</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:32</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>04/11/2023 19:15</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/mons-calpe-lincoln-red-imps/Cj4OBjpR/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,6 +2941,190 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45235.6875</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/manchester-62-lions-gibraltar/hpni7Ahr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45235.8125</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:30</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:30</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:47</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:30</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-point-europa-fc/Wzoe6U7l/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,6 +3125,282 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45254.875</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mons Calpe</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:32</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:32</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:32</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:20</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lions-gibraltar-mons-calpe/Qcpa5lNf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45255.6875</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:15</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/college-1975-europa-point/Or3248x1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45255.8125</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>25/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/st-josephs-glacis-united/67h73Si7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3401,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45261.875</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>01/12/2023 11:23</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>01/12/2023 11:23</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>01/12/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lincoln-red-imps-lions-gibraltar/C4qcQkaK/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,6 +3493,190 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45262.6875</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mons Calpe</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:16</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/mons-calpe-europa-fc/fTY1P9EQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45262.8125</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:18</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/glacis-united-lynx/WlQTKTMs/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3677,6 +3677,834 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/manchester-62-college-1975/QBPXJmxl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45263.8125</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:16</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:01</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:16</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:01</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:16</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:37</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-point-st-josephs/42OyJ7if/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45268.875</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:01</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/magpies-glacis-united/pEuZHR60/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45269.6875</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>College 1975 FC</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Mons Calpe</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:02</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:02</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:02</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/college-1975-mons-calpe/O4vwHoM6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45269.8125</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:07</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:07</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:04</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>09/12/2023 17:34</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-fc-lincoln-red-imps/IRwsG5yD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45270.8125</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lynx-europa-point/W8pgNMrt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45275.875</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:17</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:17</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>15/12/2023 11:17</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/manchester-62-lynx/AaqcMtbn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45276.6875</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-point-magpies/vZm1L0Dh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45276.8125</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Lions Gibraltar</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Europa FC</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:41</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lions-gibraltar-europa-fc/IPn5KKSb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,98 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45279.875</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Manchester 62</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Magpies</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:30</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:30</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:46</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>19/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/manchester-62-magpies/6ouIHICH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4597,6 +4597,98 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45281.875</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Lincoln Red Imps</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>St Josephs</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>21/12/2023 10:16</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:02</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>21/12/2023 10:16</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>21/12/2023 10:16</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/lincoln-red-imps-st-josephs/pxvMGxSN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/gibraltar_national-league_2023-2024.xlsx
+++ b/2023/gibraltar_national-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,6 +4689,98 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>gibraltar</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>national-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45282.875</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Europa Point</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Glacis United</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:10</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:10</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>21/12/2023 11:10</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/gibraltar/national-league/europa-point-glacis-united/2DYQFdsU/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
